--- a/data_excel/224.xlsx
+++ b/data_excel/224.xlsx
@@ -105,13 +105,14 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +141,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -178,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -486,7 +495,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,16 +623,16 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
